--- a/biology/Mycologie/Geopora/Geopora.xlsx
+++ b/biology/Mycologie/Geopora/Geopora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geopora est un genre de champignons ascomycètes de la famille des Pyronemataceae[1]. Leur sporophore est en forme de tubercule, avec un péridium noduleux, une chair claire (glèbe) et de grandes cavités[2]. Ils ne sont pas comestibles. 
-Il a été créé en 1885 par le mycologue américain Harvey Wilson Harkness (d) (1821–1901)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geopora est un genre de champignons ascomycètes de la famille des Pyronemataceae. Leur sporophore est en forme de tubercule, avec un péridium noduleux, une chair claire (glèbe) et de grandes cavités. Ils ne sont pas comestibles. 
+Il a été créé en 1885 par le mycologue américain Harvey Wilson Harkness (d) (1821–1901).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon MycoBank                                            (5 février 2023)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon MycoBank                                            (5 février 2023) :
 Geopora ahmadii Saba, T.Ashraf, Khalid &amp; Pfister, 2019
 Geopora annulata Gilkey, 1916
 Geopora arenicola (Lév.) Kers, 1974
@@ -546,7 +560,7 @@
 Geopora sinensis L.Fan &amp; L.J.Guo, 2019
 Geopora sumneriana (Cooke) M.Torre, 1975
 Geopora tenuis (Fuckel) T.Schumach., 1979
-Les reconstructions de phylogénétique moléculaire indiquent que les Geopora qui ont des apothécies en forme de coupe devraient faire partie d'un genre spécifique, Sepultaria[5]. Geopora ne comprendrait ainsi que Geopora cooperi et autres espèces voisines.
+Les reconstructions de phylogénétique moléculaire indiquent que les Geopora qui ont des apothécies en forme de coupe devraient faire partie d'un genre spécifique, Sepultaria. Geopora ne comprendrait ainsi que Geopora cooperi et autres espèces voisines.
 </t>
         </is>
       </c>
@@ -575,10 +589,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Geopora Harkn., 1885[4],[3].
-Geopora a pour synonymes[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Geopora Harkn., 1885,.
+Geopora a pour synonymes :
 Peziza subgen. Sepultaria Cooke, 1879
 Pseudhydnotrya E. Fisch. (1897), 1897
 Pseudohydnotrya E. Fisch., 1897</t>
@@ -609,9 +625,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Geopora, dérive de Ge, « la Terre », et opora, « fruits d'automne »[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Geopora, dérive de Ge, « la Terre », et opora, « fruits d'automne ».
 </t>
         </is>
       </c>
@@ -640,7 +658,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) H. W. Harkness, « Fungi of the Pacific Coast », Bulletin of the California Academy of Sciences, Inconnu, vol. 1,‎ 1885, p. 159-176 (ISSN 2577-7777, OCLC 1552525, lire en ligne)</t>
         </is>
